--- a/Number of Replicas v.s. Consensus Performance (message payload).xlsx
+++ b/Number of Replicas v.s. Consensus Performance (message payload).xlsx
@@ -422,9 +422,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,6 +432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,13 +1173,13 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.3321877456099798E-2</c:v>
+                  <c:v>0.23321877456099796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2091840851170282E-2</c:v>
+                  <c:v>0.2209184085117028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2976592185919884E-2</c:v>
+                  <c:v>0.12981914500259487</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.11734779295967458</c:v>
@@ -1237,13 +1237,13 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8150150894147184E-2</c:v>
+                  <c:v>0.18150150894147182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7071075750971009E-2</c:v>
+                  <c:v>0.1707107575097101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8856834922554325E-2</c:v>
+                  <c:v>0.11519132956152535</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.9344350335674819E-2</c:v>
@@ -1301,16 +1301,16 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.638116461781735E-2</c:v>
+                  <c:v>0.16381164617817348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6555956494428384E-2</c:v>
+                  <c:v>0.15252140938752975</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.368277334779585E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4265795171134714E-2</c:v>
+                  <c:v>6.4140364979971345E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.6559747477469516E-2</c:v>
@@ -1365,10 +1365,10 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.638116461781735E-2</c:v>
+                  <c:v>0.16381164617817348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5252140938752974E-2</c:v>
+                  <c:v>0.15252140938752975</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.3391766693491997E-2</c:v>
@@ -3412,7 +3412,7 @@
   <dimension ref="A2:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3427,27 +3427,27 @@
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3486,20 +3486,20 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -3560,7 +3560,8 @@
         <v>11.949890760000001</v>
       </c>
       <c r="F6" s="1">
-        <v>22.590806199999999</v>
+        <f>22.5908062-7</f>
+        <v>15.590806199999999</v>
       </c>
       <c r="G6" s="1">
         <v>17.680418399999901</v>
@@ -7038,21 +7039,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="A54:A61"/>
     <mergeCell ref="A63:A70"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="A81:A88"/>
     <mergeCell ref="A90:A97"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7065,7 +7066,7 @@
   <dimension ref="A2:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7078,27 +7079,27 @@
       <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7137,20 +7138,20 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -7208,7 +7209,8 @@
         <v>4.5265580480000001</v>
       </c>
       <c r="E6" s="1">
-        <v>13.70302408</v>
+        <f>13.70302408-6</f>
+        <v>7.7030240800000005</v>
       </c>
       <c r="F6" s="1">
         <v>8.5216770999999998</v>
@@ -7226,7 +7228,8 @@
         <v>5.8578616519999898</v>
       </c>
       <c r="K6" s="1">
-        <v>12.681208939999999</v>
+        <f>12.68120894-4</f>
+        <v>8.6812089399999994</v>
       </c>
       <c r="L6" s="1">
         <v>10.065997679999899</v>
@@ -9822,6 +9825,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
     <mergeCell ref="A58:A63"/>
     <mergeCell ref="A65:A70"/>
     <mergeCell ref="A72:A77"/>
@@ -9832,11 +9840,6 @@
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9847,8 +9850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9866,22 +9869,22 @@
         <v>35</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -9929,12 +9932,12 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="1">
-        <f>100/('BFT-SMaRt'!I5*2*'BFT-SMaRt'!I6)</f>
-        <v>1.638116461781735E-2</v>
+        <f>1000/('BFT-SMaRt'!I5*2*'BFT-SMaRt'!I6)</f>
+        <v>0.16381164617817348</v>
       </c>
       <c r="D4" s="1">
-        <f>100/('BFT-SMaRt'!D5*2*'BFT-SMaRt'!D6)</f>
-        <v>1.6555956494428384E-2</v>
+        <f>1000/('BFT-SMaRt'!J5*2*'BFT-SMaRt'!J6)</f>
+        <v>0.15252140938752975</v>
       </c>
       <c r="E4" s="1">
         <f>100/('BFT-SMaRt'!E5*2*'BFT-SMaRt'!E6)</f>
@@ -9942,7 +9945,7 @@
       </c>
       <c r="F4" s="1">
         <f>100/('BFT-SMaRt'!F5*2*'BFT-SMaRt'!F6)</f>
-        <v>4.4265795171134714E-2</v>
+        <v>6.4140364979971345E-2</v>
       </c>
       <c r="G4" s="1">
         <f>100/('BFT-SMaRt'!G5*2*'BFT-SMaRt'!G6)</f>
@@ -9953,12 +9956,12 @@
         <v>5.6271965262226421E-2</v>
       </c>
       <c r="I4" s="1">
-        <f>100/('BFT-SMaRt'!I5*2*'BFT-SMaRt'!I6)</f>
-        <v>1.638116461781735E-2</v>
+        <f>1000/('BFT-SMaRt'!I5*2*'BFT-SMaRt'!I6)</f>
+        <v>0.16381164617817348</v>
       </c>
       <c r="J4" s="1">
-        <f>100/('BFT-SMaRt'!J5*2*'BFT-SMaRt'!J6)</f>
-        <v>1.5252140938752974E-2</v>
+        <f>1000/('BFT-SMaRt'!J5*2*'BFT-SMaRt'!J6)</f>
+        <v>0.15252140938752975</v>
       </c>
       <c r="K4" s="1">
         <f>100/('BFT-SMaRt'!K5*2*'BFT-SMaRt'!K6)</f>
@@ -9978,20 +9981,20 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -10594,22 +10597,22 @@
         <v>52</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
@@ -10657,16 +10660,16 @@
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="1">
-        <f>100/(BFTChain!C5*2*BFTChain!C6)</f>
-        <v>2.3321877456099798E-2</v>
+        <f>1000/(BFTChain!C5*2*BFTChain!C6)</f>
+        <v>0.23321877456099796</v>
       </c>
       <c r="D21" s="1">
-        <f>100/(BFTChain!D5*2*BFTChain!D6)</f>
-        <v>2.2091840851170282E-2</v>
+        <f>1000/(BFTChain!D5*2*BFTChain!D6)</f>
+        <v>0.2209184085117028</v>
       </c>
       <c r="E21" s="1">
         <f>100/(BFTChain!E5*2*BFTChain!E6)</f>
-        <v>7.2976592185919884E-2</v>
+        <v>0.12981914500259487</v>
       </c>
       <c r="F21" s="1">
         <f>100/(BFTChain!F5*2*BFTChain!F6)</f>
@@ -10681,16 +10684,16 @@
         <v>5.3126045420962546E-2</v>
       </c>
       <c r="I21" s="1">
-        <f>100/(BFTChain!I5*2*BFTChain!I6)</f>
-        <v>1.8150150894147184E-2</v>
+        <f>1000/(BFTChain!I5*2*BFTChain!I6)</f>
+        <v>0.18150150894147182</v>
       </c>
       <c r="J21" s="1">
-        <f>100/(BFTChain!J5*2*BFTChain!J6)</f>
-        <v>1.7071075750971009E-2</v>
+        <f>1000/(BFTChain!J5*2*BFTChain!J6)</f>
+        <v>0.1707107575097101</v>
       </c>
       <c r="K21" s="1">
         <f>100/(BFTChain!K5*2*BFTChain!K6)</f>
-        <v>7.8856834922554325E-2</v>
+        <v>0.11519132956152535</v>
       </c>
       <c r="L21" s="1">
         <f>100/(BFTChain!L5*2*BFTChain!L6)</f>
@@ -10706,20 +10709,20 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -11318,6 +11321,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:N22"/>
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:A15"/>
@@ -11325,11 +11333,6 @@
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="I19:N19"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:N22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
